--- a/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
+++ b/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\WUbPPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\WUbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344EB91-DA5D-4D1D-9736-DAD08B9B0CEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="WUbPPT-withdrawals" sheetId="6" r:id="rId4"/>
     <sheet name="WUbPPT-consumption" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>biomass</t>
   </si>
@@ -304,13 +303,16 @@
   </si>
   <si>
     <t>(MoEFCC link broken, accessed in web archives)</t>
+  </si>
+  <si>
+    <t>In the India EPS, the geothermal plant type is repurposed as pumped hydro capacity.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +340,13 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -620,6 +629,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,24 +914,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.1328125" customWidth="1"/>
+    <col min="5" max="5" width="68.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,7 +947,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2018</v>
       </c>
@@ -941,7 +955,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>61</v>
       </c>
@@ -949,7 +963,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
@@ -957,7 +971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -965,143 +979,148 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{0DA4BCEA-86D2-44F2-9CDB-0C20003D2CE7}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDF80F1-6326-46AE-BD12-BB794BB2E883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="22.265625" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="20.59765625" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1141,7 @@
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -1227,7 +1246,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1282,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1316,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -1331,7 +1350,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -1367,7 +1386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -1401,7 +1420,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -1443,7 +1462,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1492,7 @@
       </c>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -1501,7 +1520,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1546,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +1573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1581,7 +1600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -1599,7 +1618,7 @@
       <c r="G16" s="10"/>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>42</v>
       </c>
@@ -1617,7 +1636,7 @@
       <c r="G17" s="10"/>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D18" s="27"/>
     </row>
   </sheetData>
@@ -1636,21 +1655,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1674,7 +1693,7 @@
         <v>2497.2747252747258</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>980.92184368737469</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1719,7 @@
         <v>2994.4500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1722,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1748,7 +1767,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1780,7 @@
         <v>1993.96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +1793,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1787,7 +1806,7 @@
         <v>1156.4220183486236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1819,7 @@
         <v>980.92184368737469</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1832,7 @@
         <v>2497.2747252747258</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1837,7 +1856,7 @@
         <v>1156.4220183486236</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1850,7 +1869,7 @@
         <v>1156.4220183486236</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1869,28 +1888,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1899,7 +1918,7 @@
         <v>18213.846153846156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1908,7 +1927,7 @@
         <v>1354.2685370741483</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1917,7 +1936,7 @@
         <v>88727.683333333349</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +1963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1953,7 +1972,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1962,16 +1981,15 @@
         <v>3163.69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <f>'2014 Consolidated Data'!B10</f>
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>1600.9174311926606</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>1354.2685370741483</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +2016,7 @@
         <v>18213.846153846156</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2007,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2016,7 +2034,7 @@
         <v>1600.9174311926606</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>1600.9174311926606</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2040,28 +2058,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +2088,7 @@
         <v>2497.2747252747258</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>980.92184368737469</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +2106,7 @@
         <v>2994.4500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2142,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2133,16 +2151,15 @@
         <v>1993.96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <f>'2014 Consolidated Data'!C10</f>
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2168,7 @@
         <v>1156.4220183486236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2160,7 +2177,7 @@
         <v>980.92184368737469</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +2186,7 @@
         <v>2497.2747252747258</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2178,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2187,7 +2204,7 @@
         <v>1156.4220183486236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2196,7 +2213,7 @@
         <v>1156.4220183486236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
